--- a/Exchange Monitoring Scripts Description.xlsx
+++ b/Exchange Monitoring Scripts Description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/194e8d034589e5e8/_Boulot/Documents/GitHub Repositories/SSC-Monitoring-Exchange-Daily-Weekly-Monthly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C2A4FA6-3D36-4386-A03D-E6F4DD8444EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{5C2A4FA6-3D36-4386-A03D-E6F4DD8444EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B038813C-67EF-499E-870E-084A33163C36}"/>
   <bookViews>
-    <workbookView xWindow="-19928" yWindow="-3562" windowWidth="16875" windowHeight="10522" xr2:uid="{D475DC60-6E90-433A-8AB1-7A03D40A9C02}"/>
+    <workbookView minimized="1" xWindow="1500" yWindow="750" windowWidth="14430" windowHeight="7545" xr2:uid="{D475DC60-6E90-433A-8AB1-7A03D40A9C02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Component monitored</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>HTML Color triggers</t>
+  </si>
+  <si>
+    <t>Scripts</t>
+  </si>
+  <si>
+    <t>Associated Win Sched</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Check_CPU_Health.ps1</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Checks and reports on Uptime hours, Average CPU, Memory usage, and C drive free space</t>
   </si>
 </sst>
 </file>
@@ -92,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -185,26 +203,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -213,12 +271,11 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -227,12 +284,11 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -241,12 +297,11 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -255,12 +310,11 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -269,12 +323,11 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -285,22 +338,58 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -347,16 +436,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{636BE2F4-DF27-4510-80CB-0A74DE20515F}" name="Table1" displayName="Table1" ref="A1:G8" totalsRowShown="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G8" xr:uid="{E4FB9536-A73A-4EEE-9262-C1A5D21E8502}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AD6F582F-2722-497C-8048-072205EC9B7B}" name="Component monitored" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9C939339-4BDB-4684-B55D-9A8830091672}" name="Output type" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{1A387D4E-410C-40C5-A575-D4F1E4168413}" name="HTML Color triggers" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{75786292-B962-458C-AD02-08FA066DF0C2}" name="e-mailed" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{61507DD2-D358-40C7-9FD0-CE29326606CC}" name="e-mail trigger" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{75B40E1E-2096-4058-A585-810B168B927A}" name="Frequency" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{1FF0B514-4533-4099-A3D6-527C243E00E4}" name="PowerShell technique" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{636BE2F4-DF27-4510-80CB-0A74DE20515F}" name="Table1" displayName="Table1" ref="A1:J9" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:J9" xr:uid="{E4FB9536-A73A-4EEE-9262-C1A5D21E8502}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{AD6F582F-2722-497C-8048-072205EC9B7B}" name="Component monitored" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{EEA776CC-6A79-4730-904C-75B44F0FE07D}" name="Scripts" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{A4E5F007-9B37-411C-A6B0-EE183FCD4EDD}" name="Associated Win Sched" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{37B69103-E9F2-4DFE-BFA4-343C586C38D2}" name="Description" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{9C939339-4BDB-4684-B55D-9A8830091672}" name="Output type" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{1A387D4E-410C-40C5-A575-D4F1E4168413}" name="HTML Color triggers" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{75786292-B962-458C-AD02-08FA066DF0C2}" name="e-mailed" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{61507DD2-D358-40C7-9FD0-CE29326606CC}" name="e-mail trigger" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{75B40E1E-2096-4058-A585-810B168B927A}" name="Frequency" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1FF0B514-4533-4099-A3D6-527C243E00E4}" name="PowerShell technique" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -659,122 +751,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6BF5A1-DB3F-4B54-9E0D-61FEB4C3D743}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
